--- a/src/Duelyst/Database/DuelystCards.xlsx
+++ b/src/Duelyst/Database/DuelystCards.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>ManaCost</t>
   </si>
@@ -57,9 +57,6 @@
     <t>SiavashDesc</t>
   </si>
   <si>
-    <t>HERO</t>
-  </si>
-  <si>
     <t>MELEE</t>
   </si>
   <si>
@@ -67,6 +64,39 @@
   </si>
   <si>
     <t>./res/Characters/generals/general_f1.png</t>
+  </si>
+  <si>
+    <t>Address of Idle Gif</t>
+  </si>
+  <si>
+    <t>./res/gifs/f1_altgeneral/idle_t.gif</t>
+  </si>
+  <si>
+    <t>MINION</t>
+  </si>
+  <si>
+    <t>Address of Run Gif</t>
+  </si>
+  <si>
+    <t>./res/gifs/f1_altgeneral/run_t.gif</t>
+  </si>
+  <si>
+    <t>Address of Attack Gif</t>
+  </si>
+  <si>
+    <t>./res/gifs/f1_altgeneral/attack_t.gif</t>
+  </si>
+  <si>
+    <t>Address of Get Damage Gif</t>
+  </si>
+  <si>
+    <t>FRIENDLY</t>
+  </si>
+  <si>
+    <t>Address Of Death Gif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Target Society</t>
   </si>
 </sst>
 </file>
@@ -384,28 +414,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="49.42578125" customWidth="1"/>
+    <col min="12" max="12" width="34.42578125" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" customWidth="1"/>
+    <col min="14" max="14" width="36.140625" customWidth="1"/>
+    <col min="15" max="15" width="38.42578125" customWidth="1"/>
+    <col min="16" max="16" width="41.85546875" customWidth="1"/>
+    <col min="17" max="17" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -437,10 +473,28 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -448,7 +502,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -457,7 +511,7 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -466,13 +520,31 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/Duelyst/Database/DuelystCards.xlsx
+++ b/src/Duelyst/Database/DuelystCards.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ManaCost</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Target Society</t>
+  </si>
+  <si>
+    <t>./res/gifs/f1_altgeneral/hit_t.gif</t>
+  </si>
+  <si>
+    <t>./res/gifs/f1_altgeneral/death_t.gif</t>
   </si>
 </sst>
 </file>
@@ -416,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,10 +544,10 @@
         <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="s">
         <v>23</v>

--- a/src/Duelyst/Database/DuelystCards.xlsx
+++ b/src/Duelyst/Database/DuelystCards.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_Downloads\Comperessed\Duelyst_java8\src\Duelyst\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Duelyst_java8\src\Duelyst\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14775" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14772" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="114">
   <si>
     <t>ManaCost</t>
   </si>
@@ -51,64 +51,322 @@
     <t>Sheild</t>
   </si>
   <si>
+    <t>MELEE</t>
+  </si>
+  <si>
+    <t>Address of Image</t>
+  </si>
+  <si>
+    <t>./res/Characters/generals/general_f1.png</t>
+  </si>
+  <si>
+    <t>Address of Idle Gif</t>
+  </si>
+  <si>
+    <t>./res/gifs/f1_altgeneral/idle_t.gif</t>
+  </si>
+  <si>
+    <t>MINION</t>
+  </si>
+  <si>
+    <t>Address of Run Gif</t>
+  </si>
+  <si>
+    <t>./res/gifs/f1_altgeneral/run_t.gif</t>
+  </si>
+  <si>
+    <t>Address of Attack Gif</t>
+  </si>
+  <si>
+    <t>./res/gifs/f1_altgeneral/attack_t.gif</t>
+  </si>
+  <si>
+    <t>Address of Get Damage Gif</t>
+  </si>
+  <si>
+    <t>FRIENDLY</t>
+  </si>
+  <si>
+    <t>Address Of Death Gif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Target Society</t>
+  </si>
+  <si>
+    <t>./res/gifs/f1_altgeneral/hit_t.gif</t>
+  </si>
+  <si>
+    <t>./res/gifs/f1_altgeneral/death_t.gif</t>
+  </si>
+  <si>
+    <t>Kamandare_Fars</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>RANGED</t>
+  </si>
+  <si>
+    <t>ShamshirZane_Fars</t>
+  </si>
+  <si>
+    <t>Hengame Zarbe Zadan, Niroo Ra Baraye Nobate Jari Stun Mikonad</t>
+  </si>
+  <si>
+    <t>NeyzeDare_Fars</t>
+  </si>
+  <si>
+    <t>HYBRID</t>
+  </si>
+  <si>
+    <t>AsbSavare_Fars</t>
+  </si>
+  <si>
+    <t>Pahlevane_Fars</t>
+  </si>
+  <si>
+    <t>Be Tedad Dafehaii ke Dar NobatHaye Ghabl Be Yeki Niroo Hamle Karde, 5 Vahed Bishtar Zarbe Vared Mikonad</t>
+  </si>
+  <si>
+    <t>SepahSalare_Fars</t>
+  </si>
+  <si>
+    <t>Combo Attack!</t>
+  </si>
+  <si>
+    <t>Kamandare_Toorani</t>
+  </si>
+  <si>
+    <t>GhollabSangdare_Toorani</t>
+  </si>
+  <si>
+    <t>NeyzeDare_Toorani</t>
+  </si>
+  <si>
+    <t>Jasoose_Toorani</t>
+  </si>
+  <si>
+    <t>Nirooye Doshman Ra Baraye Yek Nobat Disarm va Baraye 4 Nobat Masmoom Mikonad</t>
+  </si>
+  <si>
+    <t>GorzDare_Toorani</t>
+  </si>
+  <si>
+    <t>ShahZadeye_Toorani</t>
+  </si>
+  <si>
+    <t>Dive_Siah</t>
+  </si>
+  <si>
+    <t>Ghoole_SangAndaz</t>
+  </si>
+  <si>
+    <t>Oghab</t>
+  </si>
+  <si>
+    <t>10 Vahed PowerBuff Ba Afzayeshe Jan Darad</t>
+  </si>
+  <si>
+    <t>Dive_GorzSavar</t>
+  </si>
+  <si>
+    <t>Ghoole_TakCheshm</t>
+  </si>
+  <si>
+    <t>Hengame Marg Be Minion Haye Dar 8 Khaneye Mojaver 2 Vahed Zarbe Vared Mikonad</t>
+  </si>
+  <si>
+    <t>Mare_Sammi</t>
+  </si>
+  <si>
+    <t>Ta 3 Nobat Nirooye Doshman Masmoom Mishavad</t>
+  </si>
+  <si>
+    <t>Ejdehaye_AtashAndaz</t>
+  </si>
+  <si>
+    <t>Shire_Darande</t>
+  </si>
+  <si>
+    <t>HolyBuff Rooye Attake oon Tasir Nadare Yani Az Ghodrate Zarbe Kam Nemikone</t>
+  </si>
+  <si>
+    <t>Mare_GhoolPeikar</t>
+  </si>
+  <si>
+    <t>MinionHaye Dar KhaneHaye Ta 2 Vahed Fasele Hengame Zarbe Khordan Be Tore Daem 1 Vahed Bishtar Zarbe Mikhorand</t>
+  </si>
+  <si>
+    <t>Gorge_Sefid</t>
+  </si>
+  <si>
+    <t>Zamani Ke Be Yek Minion Zarbe Mizanad Dar Nobate Baed 6 vahed Va Dar Nobate Bad Az oon 4 Vahed Az Salamatish Kam Mishavad</t>
+  </si>
+  <si>
+    <t>Palang</t>
+  </si>
+  <si>
+    <t>Zamani Ke Be Yek Minion Zarbe Mizanad Dar Nobate Baed 8 Vahed az Salamatish Kam Mishavad</t>
+  </si>
+  <si>
+    <t>Gorg</t>
+  </si>
+  <si>
+    <t>Zamani Ke Be Yek Minion Zarbe Mizanad Dar Nobate Baed 6 Vahed Az salamatish Kam Mishavad</t>
+  </si>
+  <si>
+    <t>Jadoogar</t>
+  </si>
+  <si>
+    <t>Be Khodash Va Har Minione Khodi Dar 8 Khaneye Mojaverash Yek PowerBuff ba 2 Vahed Afzayeshe Ghodrate Zarbe va 1 WeaknessBuff ba 1 Vahed Kaheshe Salamti Midahad</t>
+  </si>
+  <si>
+    <t>Jadoogare_Azam</t>
+  </si>
+  <si>
+    <t>Be Khodash Va har Minione Khodi Dar 8 Khaneye Mojaverash Yek PowerBuff Ba 2 Vahed Afzayeshe Ghodrate Zarbe va 1 HolyBuff Be Soorate Contious Midahad</t>
+  </si>
+  <si>
+    <t>Jen</t>
+  </si>
+  <si>
+    <t>Be Hameye MinionHaye Khodi PowerBuff Ba 1 Vahed Afzayeshe Ghodrate Zarbe Be Soorate Continuous Midahad</t>
+  </si>
+  <si>
+    <t>Goraze_Vahshi</t>
+  </si>
+  <si>
+    <t>Disarm Nemishavad</t>
+  </si>
+  <si>
+    <t>Piran</t>
+  </si>
+  <si>
+    <t>Masmoom Nemishavad</t>
+  </si>
+  <si>
+    <t>Giv</t>
+  </si>
+  <si>
+    <t>Az CardHa Asare Manfi Nemibinad Che Buffe Manfi Che Zarbe</t>
+  </si>
+  <si>
+    <t>Bahman</t>
+  </si>
+  <si>
+    <t>Be Soorate Tasadofi Hengam Spawn Shodan Az Yeki Az Minion Haye Harif 16 Vahed Salamatiash Ra Kam Mikonad</t>
+  </si>
+  <si>
+    <t>Ashkboos</t>
+  </si>
+  <si>
+    <t>Az NirooHaii Ke Ghodrate Zarbeye Kamtari Darand Attack Nemikhorad</t>
+  </si>
+  <si>
+    <t>Iraj</t>
+  </si>
+  <si>
+    <t>Ghoole_Bozorg</t>
+  </si>
+  <si>
+    <t>Ghoole_Dosar</t>
+  </si>
+  <si>
+    <t>Har Nirooii Ke Morede Hamle Gharar Midahad Tamame BuffHaye Mosbatash Az Bein Miravad</t>
+  </si>
+  <si>
+    <t>NaneSarma</t>
+  </si>
+  <si>
+    <t>Hengame Spawn MinionHaye Harif Dar 8 Khaneye Mojaver Yek Nobat Stun Mishavand</t>
+  </si>
+  <si>
+    <t>Foolad_Zereh</t>
+  </si>
+  <si>
+    <t>12 ta HolyBuff Besoorate Continuous Darad</t>
+  </si>
+  <si>
     <t>Siavash</t>
   </si>
   <si>
-    <t>SiavashDesc</t>
-  </si>
-  <si>
-    <t>MELEE</t>
-  </si>
-  <si>
-    <t>Address of Image</t>
-  </si>
-  <si>
-    <t>./res/Characters/generals/general_f1.png</t>
-  </si>
-  <si>
-    <t>Address of Idle Gif</t>
-  </si>
-  <si>
-    <t>./res/gifs/f1_altgeneral/idle_t.gif</t>
-  </si>
-  <si>
-    <t>MINION</t>
-  </si>
-  <si>
-    <t>Address of Run Gif</t>
-  </si>
-  <si>
-    <t>./res/gifs/f1_altgeneral/run_t.gif</t>
-  </si>
-  <si>
-    <t>Address of Attack Gif</t>
-  </si>
-  <si>
-    <t>./res/gifs/f1_altgeneral/attack_t.gif</t>
-  </si>
-  <si>
-    <t>Address of Get Damage Gif</t>
-  </si>
-  <si>
-    <t>FRIENDLY</t>
-  </si>
-  <si>
-    <t>Address Of Death Gif</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Target Society</t>
-  </si>
-  <si>
-    <t>./res/gifs/f1_altgeneral/hit_t.gif</t>
-  </si>
-  <si>
-    <t>./res/gifs/f1_altgeneral/death_t.gif</t>
+    <t>Hengame Marg 6 Vahed Zarbe Be Ghahremane Doshman Mizanad</t>
+  </si>
+  <si>
+    <t>ShahGhool</t>
+  </si>
+  <si>
+    <t>ArjangDiv</t>
+  </si>
+  <si>
+    <t>Dive_Sefid</t>
+  </si>
+  <si>
+    <t>Yek PowerBuff Ba 4  Vahed Afzayeshe Zarbe Be Tore Daem Rooye Khod Faal Mikonad</t>
+  </si>
+  <si>
+    <t>HERO</t>
+  </si>
+  <si>
+    <t>Simorgh</t>
+  </si>
+  <si>
+    <t>Hameye Niroohaye Doshman Ra Baraye Yek Nobat Stun Mikonad</t>
+  </si>
+  <si>
+    <t>Ejdehaye_HaftSar</t>
+  </si>
+  <si>
+    <t>1 nafar Ra Disarm Mikonad</t>
+  </si>
+  <si>
+    <t>Rakhsh</t>
+  </si>
+  <si>
+    <t>1 Nirooye Doshman Ra Baraye 1 Nobat Stun Mikonad</t>
+  </si>
+  <si>
+    <t>Zahhak</t>
+  </si>
+  <si>
+    <t>Hengame Zarbe Fard Ra Baraye 3 Nobat Masmoom Mikonad</t>
+  </si>
+  <si>
+    <t>Kaveh</t>
+  </si>
+  <si>
+    <t>Yek Khane Ra Baraye 3 Nobat Moghaddas Mikonad</t>
+  </si>
+  <si>
+    <t>Arash</t>
+  </si>
+  <si>
+    <t>Be Hameye Niroohaye Dar Satre Hero 4 Vahed Zarbe Vared Mikonad</t>
+  </si>
+  <si>
+    <t>Afsaneh</t>
+  </si>
+  <si>
+    <t>Yek Nirooye Doshman Ra Dispel Mikonad</t>
+  </si>
+  <si>
+    <t>Esfandiar</t>
+  </si>
+  <si>
+    <t>3 HolyBuff Ra Besoorate Continuous Darad</t>
+  </si>
+  <si>
+    <t>Rostam</t>
+  </si>
+  <si>
+    <t>Null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,34 +678,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="49.42578125" customWidth="1"/>
-    <col min="12" max="12" width="34.42578125" customWidth="1"/>
-    <col min="13" max="13" width="39.7109375" customWidth="1"/>
-    <col min="14" max="14" width="36.140625" customWidth="1"/>
-    <col min="15" max="15" width="38.42578125" customWidth="1"/>
-    <col min="16" max="16" width="41.85546875" customWidth="1"/>
-    <col min="17" max="17" width="33.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="49.44140625" customWidth="1"/>
+    <col min="12" max="12" width="34.44140625" customWidth="1"/>
+    <col min="13" max="13" width="39.6640625" customWidth="1"/>
+    <col min="14" max="14" width="36.109375" customWidth="1"/>
+    <col min="15" max="15" width="38.44140625" customWidth="1"/>
+    <col min="16" max="16" width="41.88671875" customWidth="1"/>
+    <col min="17" max="17" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -479,78 +737,2675 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
       <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
-        <v>24</v>
-      </c>
       <c r="Q1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
+        <v>300</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>400</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" t="s">
+        <v>113</v>
+      </c>
+      <c r="O4" t="s">
+        <v>113</v>
+      </c>
+      <c r="P4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" t="s">
+        <v>113</v>
+      </c>
+      <c r="P5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>600</v>
+      </c>
+      <c r="F6">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" t="s">
+        <v>113</v>
+      </c>
+      <c r="M6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P6" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>800</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" t="s">
+        <v>113</v>
+      </c>
+      <c r="O8" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>600</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>600</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>113</v>
+      </c>
+      <c r="P10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>700</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>113</v>
+      </c>
+      <c r="P11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>450</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" t="s">
+        <v>113</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>800</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" t="s">
+        <v>113</v>
+      </c>
+      <c r="N13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" t="s">
+        <v>113</v>
+      </c>
+      <c r="P13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>800</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" t="s">
+        <v>113</v>
+      </c>
+      <c r="N14" t="s">
+        <v>113</v>
+      </c>
+      <c r="O14" t="s">
+        <v>113</v>
+      </c>
+      <c r="P14" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" t="s">
+        <v>113</v>
+      </c>
+      <c r="M15" t="s">
+        <v>113</v>
+      </c>
+      <c r="N15" t="s">
+        <v>113</v>
+      </c>
+      <c r="O15" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>200</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>113</v>
+      </c>
+      <c r="L16" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16" t="s">
+        <v>113</v>
+      </c>
+      <c r="N16" t="s">
+        <v>113</v>
+      </c>
+      <c r="O16" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" t="s">
+        <v>113</v>
+      </c>
+      <c r="N17" t="s">
+        <v>113</v>
+      </c>
+      <c r="O17" t="s">
+        <v>113</v>
+      </c>
+      <c r="P17" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="F2">
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>500</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N18" t="s">
+        <v>113</v>
+      </c>
+      <c r="O18" t="s">
+        <v>113</v>
+      </c>
+      <c r="P18" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>300</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>113</v>
+      </c>
+      <c r="L19" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19" t="s">
+        <v>113</v>
+      </c>
+      <c r="N19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O19" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>250</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" t="s">
+        <v>113</v>
+      </c>
+      <c r="M20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N20" t="s">
+        <v>113</v>
+      </c>
+      <c r="O20" t="s">
+        <v>113</v>
+      </c>
+      <c r="P20" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>600</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>113</v>
+      </c>
+      <c r="L21" t="s">
+        <v>113</v>
+      </c>
+      <c r="M21" t="s">
+        <v>113</v>
+      </c>
+      <c r="N21" t="s">
+        <v>113</v>
+      </c>
+      <c r="O21" t="s">
+        <v>113</v>
+      </c>
+      <c r="P21" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>500</v>
+      </c>
+      <c r="F22">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>113</v>
+      </c>
+      <c r="L22" t="s">
+        <v>113</v>
+      </c>
+      <c r="M22" t="s">
+        <v>113</v>
+      </c>
+      <c r="N22" t="s">
+        <v>113</v>
+      </c>
+      <c r="O22" t="s">
+        <v>113</v>
+      </c>
+      <c r="P22" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>400</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>113</v>
+      </c>
+      <c r="L23" t="s">
+        <v>113</v>
+      </c>
+      <c r="M23" t="s">
+        <v>113</v>
+      </c>
+      <c r="N23" t="s">
+        <v>113</v>
+      </c>
+      <c r="O23" t="s">
+        <v>113</v>
+      </c>
+      <c r="P23" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>113</v>
+      </c>
+      <c r="L24" t="s">
+        <v>113</v>
+      </c>
+      <c r="M24" t="s">
+        <v>113</v>
+      </c>
+      <c r="N24" t="s">
+        <v>113</v>
+      </c>
+      <c r="O24" t="s">
+        <v>113</v>
+      </c>
+      <c r="P24" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>400</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" t="s">
+        <v>113</v>
+      </c>
+      <c r="M25" t="s">
+        <v>113</v>
+      </c>
+      <c r="N25" t="s">
+        <v>113</v>
+      </c>
+      <c r="O25" t="s">
+        <v>113</v>
+      </c>
+      <c r="P25" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>550</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>113</v>
+      </c>
+      <c r="L26" t="s">
+        <v>113</v>
+      </c>
+      <c r="M26" t="s">
+        <v>113</v>
+      </c>
+      <c r="N26" t="s">
+        <v>113</v>
+      </c>
+      <c r="O26" t="s">
+        <v>113</v>
+      </c>
+      <c r="P26" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>550</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>113</v>
+      </c>
+      <c r="L27" t="s">
+        <v>113</v>
+      </c>
+      <c r="M27" t="s">
+        <v>113</v>
+      </c>
+      <c r="N27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P27" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>500</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" t="s">
+        <v>113</v>
+      </c>
+      <c r="M28" t="s">
+        <v>113</v>
+      </c>
+      <c r="N28" t="s">
+        <v>113</v>
+      </c>
+      <c r="O28" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>500</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>14</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" t="s">
+        <v>113</v>
+      </c>
+      <c r="M29" t="s">
+        <v>113</v>
+      </c>
+      <c r="N29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P29" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>400</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <v>12</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>113</v>
+      </c>
+      <c r="L30" t="s">
+        <v>113</v>
+      </c>
+      <c r="M30" t="s">
+        <v>113</v>
+      </c>
+      <c r="N30" t="s">
+        <v>113</v>
+      </c>
+      <c r="O30" t="s">
+        <v>113</v>
+      </c>
+      <c r="P30" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>450</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>113</v>
+      </c>
+      <c r="L31" t="s">
+        <v>113</v>
+      </c>
+      <c r="M31" t="s">
+        <v>113</v>
+      </c>
+      <c r="N31" t="s">
+        <v>113</v>
+      </c>
+      <c r="O31" t="s">
+        <v>113</v>
+      </c>
+      <c r="P31" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>450</v>
+      </c>
+      <c r="F32">
+        <v>16</v>
+      </c>
+      <c r="G32">
+        <v>9</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>113</v>
+      </c>
+      <c r="L32" t="s">
+        <v>113</v>
+      </c>
+      <c r="M32" t="s">
+        <v>113</v>
+      </c>
+      <c r="N32" t="s">
+        <v>113</v>
+      </c>
+      <c r="O32" t="s">
+        <v>113</v>
+      </c>
+      <c r="P32" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>400</v>
+      </c>
+      <c r="F33">
+        <v>14</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>113</v>
+      </c>
+      <c r="L33" t="s">
+        <v>113</v>
+      </c>
+      <c r="M33" t="s">
+        <v>113</v>
+      </c>
+      <c r="N33" t="s">
+        <v>113</v>
+      </c>
+      <c r="O33" t="s">
+        <v>113</v>
+      </c>
+      <c r="P33" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>500</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>20</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>113</v>
+      </c>
+      <c r="L34" t="s">
+        <v>113</v>
+      </c>
+      <c r="M34" t="s">
+        <v>113</v>
+      </c>
+      <c r="N34" t="s">
+        <v>113</v>
+      </c>
+      <c r="O34" t="s">
+        <v>113</v>
+      </c>
+      <c r="P34" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>600</v>
+      </c>
+      <c r="F35">
+        <v>30</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>113</v>
+      </c>
+      <c r="L35" t="s">
+        <v>113</v>
+      </c>
+      <c r="M35" t="s">
+        <v>113</v>
+      </c>
+      <c r="N35" t="s">
+        <v>113</v>
+      </c>
+      <c r="O35" t="s">
+        <v>113</v>
+      </c>
+      <c r="P35" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>550</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>113</v>
+      </c>
+      <c r="L36" t="s">
+        <v>113</v>
+      </c>
+      <c r="M36" t="s">
+        <v>113</v>
+      </c>
+      <c r="N36" t="s">
+        <v>113</v>
+      </c>
+      <c r="O36" t="s">
+        <v>113</v>
+      </c>
+      <c r="P36" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>500</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>113</v>
+      </c>
+      <c r="L37" t="s">
+        <v>113</v>
+      </c>
+      <c r="M37" t="s">
+        <v>113</v>
+      </c>
+      <c r="N37" t="s">
+        <v>113</v>
+      </c>
+      <c r="O37" t="s">
+        <v>113</v>
+      </c>
+      <c r="P37" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>650</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>113</v>
+      </c>
+      <c r="L38" t="s">
+        <v>113</v>
+      </c>
+      <c r="M38" t="s">
+        <v>113</v>
+      </c>
+      <c r="N38" t="s">
+        <v>113</v>
+      </c>
+      <c r="O38" t="s">
+        <v>113</v>
+      </c>
+      <c r="P38" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>350</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>113</v>
+      </c>
+      <c r="L39" t="s">
+        <v>113</v>
+      </c>
+      <c r="M39" t="s">
+        <v>113</v>
+      </c>
+      <c r="N39" t="s">
+        <v>113</v>
+      </c>
+      <c r="O39" t="s">
+        <v>113</v>
+      </c>
+      <c r="P39" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>600</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>113</v>
+      </c>
+      <c r="L40" t="s">
+        <v>113</v>
+      </c>
+      <c r="M40" t="s">
+        <v>113</v>
+      </c>
+      <c r="N40" t="s">
+        <v>113</v>
+      </c>
+      <c r="O40" t="s">
+        <v>113</v>
+      </c>
+      <c r="P40" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>600</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>113</v>
+      </c>
+      <c r="L41" t="s">
+        <v>113</v>
+      </c>
+      <c r="M41" t="s">
+        <v>113</v>
+      </c>
+      <c r="N41" t="s">
+        <v>113</v>
+      </c>
+      <c r="O41" t="s">
+        <v>113</v>
+      </c>
+      <c r="P41" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>8000</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>113</v>
+      </c>
+      <c r="L42" t="s">
+        <v>113</v>
+      </c>
+      <c r="M42" t="s">
+        <v>113</v>
+      </c>
+      <c r="N42" t="s">
+        <v>113</v>
+      </c>
+      <c r="O42" t="s">
+        <v>113</v>
+      </c>
+      <c r="P42" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>9000</v>
+      </c>
+      <c r="F43">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>113</v>
+      </c>
+      <c r="L43" t="s">
+        <v>113</v>
+      </c>
+      <c r="M43" t="s">
+        <v>113</v>
+      </c>
+      <c r="N43" t="s">
+        <v>113</v>
+      </c>
+      <c r="O43" t="s">
+        <v>113</v>
+      </c>
+      <c r="P43" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>8000</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>113</v>
+      </c>
+      <c r="L44" t="s">
+        <v>113</v>
+      </c>
+      <c r="M44" t="s">
+        <v>113</v>
+      </c>
+      <c r="N44" t="s">
+        <v>113</v>
+      </c>
+      <c r="O44" t="s">
+        <v>113</v>
+      </c>
+      <c r="P44" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>8000</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>113</v>
+      </c>
+      <c r="L45" t="s">
+        <v>113</v>
+      </c>
+      <c r="M45" t="s">
+        <v>113</v>
+      </c>
+      <c r="N45" t="s">
+        <v>113</v>
+      </c>
+      <c r="O45" t="s">
+        <v>113</v>
+      </c>
+      <c r="P45" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>10000</v>
+      </c>
+      <c r="F46">
+        <v>50</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>113</v>
+      </c>
+      <c r="L46" t="s">
+        <v>113</v>
+      </c>
+      <c r="M46" t="s">
+        <v>113</v>
+      </c>
+      <c r="N46" t="s">
+        <v>113</v>
+      </c>
+      <c r="O46" t="s">
+        <v>113</v>
+      </c>
+      <c r="P46" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>8000</v>
+      </c>
+      <c r="F47">
+        <v>50</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>113</v>
+      </c>
+      <c r="L47" t="s">
+        <v>113</v>
+      </c>
+      <c r="M47" t="s">
+        <v>113</v>
+      </c>
+      <c r="N47" t="s">
+        <v>113</v>
+      </c>
+      <c r="O47" t="s">
+        <v>113</v>
+      </c>
+      <c r="P47" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>10000</v>
+      </c>
+      <c r="F48">
+        <v>30</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>113</v>
+      </c>
+      <c r="L48" t="s">
+        <v>113</v>
+      </c>
+      <c r="M48" t="s">
+        <v>113</v>
+      </c>
+      <c r="N48" t="s">
+        <v>113</v>
+      </c>
+      <c r="O48" t="s">
+        <v>113</v>
+      </c>
+      <c r="P48" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>11000</v>
+      </c>
+      <c r="F49">
         <v>40</v>
       </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>113</v>
+      </c>
+      <c r="L49" t="s">
+        <v>113</v>
+      </c>
+      <c r="M49" t="s">
+        <v>113</v>
+      </c>
+      <c r="N49" t="s">
+        <v>113</v>
+      </c>
+      <c r="O49" t="s">
+        <v>113</v>
+      </c>
+      <c r="P49" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>12000</v>
+      </c>
+      <c r="F50">
+        <v>35</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>113</v>
+      </c>
+      <c r="L50" t="s">
+        <v>113</v>
+      </c>
+      <c r="M50" t="s">
+        <v>113</v>
+      </c>
+      <c r="N50" t="s">
+        <v>113</v>
+      </c>
+      <c r="O50" t="s">
+        <v>113</v>
+      </c>
+      <c r="P50" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" t="s">
-        <v>23</v>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>8000</v>
+      </c>
+      <c r="F51">
+        <v>55</v>
+      </c>
+      <c r="G51">
+        <v>7</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>113</v>
+      </c>
+      <c r="L51" t="s">
+        <v>113</v>
+      </c>
+      <c r="M51" t="s">
+        <v>113</v>
+      </c>
+      <c r="N51" t="s">
+        <v>113</v>
+      </c>
+      <c r="O51" t="s">
+        <v>113</v>
+      </c>
+      <c r="P51" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/src/Duelyst/Database/DuelystCards.xlsx
+++ b/src/Duelyst/Database/DuelystCards.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Duelyst_java8\src\Duelyst\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_Downloads\Comperessed\Duelyst_java8\src\Duelyst\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14772" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14775" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="113">
   <si>
     <t>ManaCost</t>
   </si>
@@ -358,15 +358,12 @@
   </si>
   <si>
     <t>Rostam</t>
-  </si>
-  <si>
-    <t>Null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -680,32 +677,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView tabSelected="1" topLeftCell="L26" zoomScale="93" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="90.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="49.44140625" customWidth="1"/>
-    <col min="12" max="12" width="34.44140625" customWidth="1"/>
-    <col min="13" max="13" width="39.6640625" customWidth="1"/>
-    <col min="14" max="14" width="36.109375" customWidth="1"/>
-    <col min="15" max="15" width="38.44140625" customWidth="1"/>
-    <col min="16" max="16" width="41.88671875" customWidth="1"/>
-    <col min="17" max="17" width="33.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="49.42578125" customWidth="1"/>
+    <col min="12" max="12" width="34.42578125" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" customWidth="1"/>
+    <col min="14" max="14" width="36.140625" customWidth="1"/>
+    <col min="15" max="15" width="38.42578125" customWidth="1"/>
+    <col min="16" max="16" width="41.85546875" customWidth="1"/>
+    <col min="17" max="17" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -758,7 +755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -811,7 +808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -843,28 +840,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N3" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O3" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -896,28 +893,28 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O4" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -949,28 +946,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O5" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1002,28 +999,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O6" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1055,28 +1052,28 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O7" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1108,28 +1105,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N8" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O8" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1161,28 +1158,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O9" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1214,28 +1211,28 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O10" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1267,28 +1264,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O11" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1320,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O12" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P12" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1373,28 +1370,28 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O13" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1426,28 +1423,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L14" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O14" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P14" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1479,28 +1476,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L15" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O15" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1532,28 +1529,28 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L16" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N16" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O16" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P16" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1585,28 +1582,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L17" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N17" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O17" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P17" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1638,28 +1635,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L18" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N18" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O18" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P18" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1691,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L19" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N19" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O19" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P19" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1744,28 +1741,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L20" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N20" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O20" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P20" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1797,28 +1794,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L21" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M21" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N21" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O21" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P21" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -1850,28 +1847,28 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L22" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M22" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N22" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O22" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P22" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1903,28 +1900,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L23" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M23" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N23" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O23" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P23" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -1956,28 +1953,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L24" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M24" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N24" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O24" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P24" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -2009,28 +2006,28 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L25" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M25" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N25" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O25" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2062,28 +2059,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L26" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M26" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N26" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O26" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P26" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -2115,28 +2112,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L27" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M27" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N27" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O27" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P27" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -2168,28 +2165,28 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L28" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M28" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N28" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O28" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P28" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -2221,28 +2218,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L29" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M29" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N29" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O29" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P29" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -2274,28 +2271,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L30" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M30" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N30" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O30" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P30" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -2327,28 +2324,28 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L31" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M31" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N31" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O31" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P31" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2380,28 +2377,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L32" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M32" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N32" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O32" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P32" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -2433,28 +2430,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L33" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M33" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N33" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O33" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P33" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -2486,28 +2483,28 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L34" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M34" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N34" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O34" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P34" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -2539,28 +2536,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L35" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M35" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N35" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O35" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P35" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -2592,28 +2589,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L36" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M36" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N36" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O36" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P36" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -2645,28 +2642,28 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L37" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M37" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N37" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O37" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P37" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -2698,28 +2695,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L38" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M38" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N38" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O38" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P38" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -2751,28 +2748,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L39" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M39" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N39" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O39" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P39" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -2804,28 +2801,28 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L40" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M40" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N40" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O40" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P40" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -2857,28 +2854,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L41" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M41" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N41" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O41" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P41" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>93</v>
       </c>
@@ -2910,28 +2907,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L42" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M42" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N42" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O42" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P42" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -2963,28 +2960,28 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L43" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M43" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N43" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O43" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P43" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>98</v>
       </c>
@@ -3016,28 +3013,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L44" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M44" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N44" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O44" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P44" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q44" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -3069,28 +3066,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L45" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M45" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N45" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O45" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P45" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -3122,28 +3119,28 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L46" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M46" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N46" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O46" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P46" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -3175,28 +3172,28 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L47" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M47" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N47" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O47" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P47" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -3228,28 +3225,28 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L48" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M48" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N48" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O48" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P48" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>108</v>
       </c>
@@ -3281,28 +3278,28 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L49" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M49" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N49" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O49" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P49" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -3334,28 +3331,28 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L50" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M50" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N50" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O50" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P50" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>112</v>
       </c>
@@ -3387,25 +3384,25 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="L51" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="M51" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="N51" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O51" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="P51" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="Q51" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/Duelyst/Database/DuelystCards.xlsx
+++ b/src/Duelyst/Database/DuelystCards.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="114">
   <si>
     <t>ManaCost</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>Rostam</t>
+  </si>
+  <si>
+    <t>Cooldown</t>
   </si>
 </sst>
 </file>
@@ -675,15 +678,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L26" zoomScale="93" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection pane="topRight" activeCell="Z41" sqref="Z41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="90.42578125" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
@@ -702,7 +707,7 @@
     <col min="17" max="17" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -754,8 +759,11 @@
       <c r="Q1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -807,8 +815,11 @@
       <c r="Q2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -860,8 +871,11 @@
       <c r="Q3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -913,8 +927,11 @@
       <c r="Q4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -966,8 +983,11 @@
       <c r="Q5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1019,8 +1039,11 @@
       <c r="Q6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1072,8 +1095,11 @@
       <c r="Q7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1125,8 +1151,11 @@
       <c r="Q8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1178,8 +1207,11 @@
       <c r="Q9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1231,8 +1263,11 @@
       <c r="Q10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1284,8 +1319,11 @@
       <c r="Q11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1337,8 +1375,11 @@
       <c r="Q12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1390,8 +1431,11 @@
       <c r="Q13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1443,8 +1487,11 @@
       <c r="Q14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1496,8 +1543,11 @@
       <c r="Q15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1549,8 +1599,11 @@
       <c r="Q16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1602,8 +1655,11 @@
       <c r="Q17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1655,8 +1711,11 @@
       <c r="Q18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1708,8 +1767,11 @@
       <c r="Q19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1761,8 +1823,11 @@
       <c r="Q20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1814,8 +1879,11 @@
       <c r="Q21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -1867,8 +1935,11 @@
       <c r="Q22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1920,8 +1991,11 @@
       <c r="Q23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -1973,8 +2047,11 @@
       <c r="Q24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -2026,8 +2103,11 @@
       <c r="Q25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2079,8 +2159,11 @@
       <c r="Q26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -2132,8 +2215,11 @@
       <c r="Q27" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -2185,8 +2271,11 @@
       <c r="Q28" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -2238,8 +2327,11 @@
       <c r="Q29" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="Q30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -2344,8 +2439,11 @@
       <c r="Q31" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2397,8 +2495,11 @@
       <c r="Q32" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -2450,8 +2551,11 @@
       <c r="Q33" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -2503,8 +2607,11 @@
       <c r="Q34" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -2556,8 +2663,11 @@
       <c r="Q35" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -2609,8 +2719,11 @@
       <c r="Q36" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -2662,8 +2775,11 @@
       <c r="Q37" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -2715,8 +2831,11 @@
       <c r="Q38" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -2768,8 +2887,11 @@
       <c r="Q39" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -2821,8 +2943,11 @@
       <c r="Q40" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -2874,8 +2999,11 @@
       <c r="Q41" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>93</v>
       </c>
@@ -2927,8 +3055,11 @@
       <c r="Q42" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -2980,8 +3111,11 @@
       <c r="Q43" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>98</v>
       </c>
@@ -3033,8 +3167,11 @@
       <c r="Q44" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -3086,8 +3223,11 @@
       <c r="Q45" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -3139,8 +3279,11 @@
       <c r="Q46" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -3192,8 +3335,11 @@
       <c r="Q47" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -3245,8 +3391,11 @@
       <c r="Q48" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>108</v>
       </c>
@@ -3298,8 +3447,11 @@
       <c r="Q49" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -3351,8 +3503,11 @@
       <c r="Q50" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>112</v>
       </c>
@@ -3403,6 +3558,9 @@
       </c>
       <c r="Q51" t="s">
         <v>21</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/Duelyst/Database/DuelystCards.xlsx
+++ b/src/Duelyst/Database/DuelystCards.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_Downloads\Comperessed\Duelyst_java8\src\Duelyst\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Duelyst_java8\src\Duelyst\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14775" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14772" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="117">
   <si>
     <t>ManaCost</t>
   </si>
@@ -361,12 +361,21 @@
   </si>
   <si>
     <t>Cooldown</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/KamandareFars/Kamandare_Fars.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/ShamshirZaneFars/ShamshirZane_Fars.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/NeyzeDareFars/NeyzeDare_Fars.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -681,33 +690,33 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="Z41" sqref="Z41"/>
+      <selection pane="topRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="90.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="90.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="49.42578125" customWidth="1"/>
-    <col min="12" max="12" width="34.42578125" customWidth="1"/>
-    <col min="13" max="13" width="39.7109375" customWidth="1"/>
-    <col min="14" max="14" width="36.140625" customWidth="1"/>
-    <col min="15" max="15" width="38.42578125" customWidth="1"/>
-    <col min="16" max="16" width="41.85546875" customWidth="1"/>
-    <col min="17" max="17" width="33.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="49.44140625" customWidth="1"/>
+    <col min="12" max="12" width="34.44140625" customWidth="1"/>
+    <col min="13" max="13" width="39.6640625" customWidth="1"/>
+    <col min="14" max="14" width="36.109375" customWidth="1"/>
+    <col min="15" max="15" width="38.44140625" customWidth="1"/>
+    <col min="16" max="16" width="41.88671875" customWidth="1"/>
+    <col min="17" max="17" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -763,7 +772,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -795,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -819,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -851,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
@@ -875,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -907,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="L4" t="s">
         <v>14</v>
@@ -931,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -987,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1043,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1099,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1155,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1211,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1267,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1323,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1379,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1435,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1491,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1547,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1603,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1659,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1715,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1771,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1827,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1883,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -1939,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1995,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -2051,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -2107,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2163,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -2219,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -2275,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -2331,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -2387,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -2443,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2499,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -2555,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -2611,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -2667,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -2723,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -2779,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -2835,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -2891,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -2947,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -3003,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>93</v>
       </c>
@@ -3059,7 +3068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -3115,7 +3124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>98</v>
       </c>
@@ -3171,7 +3180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -3227,7 +3236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -3283,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -3339,7 +3348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -3395,7 +3404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>108</v>
       </c>
@@ -3451,7 +3460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -3507,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>112</v>
       </c>

--- a/src/Duelyst/Database/DuelystCards.xlsx
+++ b/src/Duelyst/Database/DuelystCards.xlsx
@@ -680,10 +680,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="93" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="Z41" sqref="Z41"/>
+      <selection pane="topRight" activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/Duelyst/Database/DuelystCards.xlsx
+++ b/src/Duelyst/Database/DuelystCards.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="120">
   <si>
     <t>ManaCost</t>
   </si>
@@ -363,13 +363,22 @@
     <t>Cooldown</t>
   </si>
   <si>
-    <t>./res/Characters/UnitsCreated/KamandareFars/Kamandare_Fars.png</t>
-  </si>
-  <si>
-    <t>./res/Characters/UnitsCreated/ShamshirZaneFars/ShamshirZane_Fars.png</t>
-  </si>
-  <si>
-    <t>./res/Characters/UnitsCreated/NeyzeDareFars/NeyzeDare_Fars.png</t>
+    <t>./res/Characters/UnitsCreated/Fars/KamandareFars/Kamandare_Fars.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/ShamshirZaneFars/ShamshirZane_Fars.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/NeyzeDareFars/NeyzeDare_Fars.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/AsbSavareFars/AsbSavare_Fars.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/PahlevaneFars/Pahlevane_Fars.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/SepahSalareFars/SepahSalare_Fars.png</t>
   </si>
 </sst>
 </file>
@@ -690,9 +699,9 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="K5" sqref="K5"/>
+      <selection pane="topRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
@@ -1028,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="L6" t="s">
         <v>14</v>
@@ -1084,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s">
         <v>14</v>

--- a/src/Duelyst/Database/DuelystCards.xlsx
+++ b/src/Duelyst/Database/DuelystCards.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="163">
   <si>
     <t>ManaCost</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Address of Image</t>
   </si>
   <si>
-    <t>./res/Characters/generals/general_f1.png</t>
-  </si>
-  <si>
     <t>Address of Idle Gif</t>
   </si>
   <si>
@@ -379,14 +376,154 @@
   </si>
   <si>
     <t>./res/Characters/UnitsCreated/Fars/SepahSalareFars/SepahSalare_Fars.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/KamandareToorani/Kamandare_Toorani.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/GhollabSangAndazeToorani/GhollabSangAndaze_Toorani.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/NeyzeDareToorani/NeyzeDare_Toorani.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/JasooseToorani/Jasoose_Toorani.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/GorzDareToorani/GorzDare_Toorani.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/ShahzadeyeToorani/Shahzadeye_Toorani.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Div/DiveSiah/DiveSiah.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Div/DiveGorazSavar/DiveGorazSavar.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Div/ArjangDiv/ArjangDiv.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleSangAndaz/GhooleSangAndaz.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Oghab/Oghab.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleTakCheshm/GhooleTakCheshm.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/MareSammi/MareSammi.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/MareGhoolPeikar/MareGhoolPeikar.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/EjdehayeAtashAndaz/EjdehayeAtashAndaz.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/ShireDarande/ShireDarande.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/GorgeSefid/GorgeSefid.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Palang/Palang.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Gorg/Gorg.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/GorazeVahshi/GorazeVahshi.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Jadoogar/Jadoogar.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/JadoogareAzam/JadoogareAzam.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Jen/Jen.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Piran/Piran.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Giv/Giv.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Bahman/Bahman.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Ashkboos/Ashkboos.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Iraj/Iraj.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleBozorg/GhooleBozorg.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleDoSar/GhooleDoSar.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/NaneSarma/NaneSarma.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/FooladZereh/FooladZereh.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Siavash/Siavash.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/ShahGhool/ShahGhool.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/DiveSefid/DiveSefid.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Simorgh/Simorgh.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/EjdehayeHaftSar/EjdehayeHaftSar.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Rakhsh/Rakhsh.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Rostam/Rostam.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Esfandiar/Esfandiar.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Zahhak/Zahhak.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Afsaneh/Afsaneh.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Kaveh/Kaveh.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Arash/Arash.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -414,8 +551,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,10 +836,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="93" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="K8" sqref="K8"/>
+      <selection pane="topRight" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,36 +898,36 @@
         <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
       <c r="R1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -807,31 +945,31 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -839,13 +977,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -869,25 +1007,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -895,13 +1033,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -919,31 +1057,31 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -951,13 +1089,13 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -981,25 +1119,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1007,13 +1145,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -1037,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1063,13 +1201,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1093,25 +1231,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1119,13 +1257,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1143,31 +1281,31 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1175,13 +1313,13 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1199,31 +1337,31 @@
         <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1231,13 +1369,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1255,31 +1393,31 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1287,13 +1425,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -1317,25 +1455,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1343,13 +1481,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1373,25 +1511,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1399,13 +1537,13 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -1429,25 +1567,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1455,13 +1593,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -1485,25 +1623,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1511,13 +1649,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -1535,31 +1673,31 @@
         <v>7</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1567,13 +1705,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1591,31 +1729,31 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="L16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -1623,13 +1761,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -1653,25 +1791,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="L17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -1679,13 +1817,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -1703,31 +1841,31 @@
         <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18" t="s">
-        <v>12</v>
+      <c r="K18" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="L18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -1735,13 +1873,13 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -1759,31 +1897,31 @@
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="L19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -1791,13 +1929,13 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -1815,31 +1953,31 @@
         <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -1847,13 +1985,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1877,25 +2015,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="L21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -1903,13 +2041,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>8</v>
@@ -1927,31 +2065,31 @@
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="L22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -1959,13 +2097,13 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
         <v>59</v>
       </c>
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -1989,25 +2127,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="L23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -2015,13 +2153,13 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -2045,25 +2183,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="L24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -2071,13 +2209,13 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -2101,25 +2239,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="L25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -2127,13 +2265,13 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
         <v>65</v>
       </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -2151,31 +2289,31 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="L26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -2183,13 +2321,13 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
         <v>67</v>
       </c>
-      <c r="B27" t="s">
-        <v>68</v>
-      </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -2207,31 +2345,31 @@
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="L27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -2239,13 +2377,13 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
         <v>69</v>
       </c>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -2263,31 +2401,31 @@
         <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="L28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -2295,13 +2433,13 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
         <v>71</v>
       </c>
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29">
         <v>6</v>
@@ -2325,25 +2463,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="L29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -2351,13 +2489,13 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
         <v>73</v>
       </c>
-      <c r="B30" t="s">
-        <v>74</v>
-      </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -2381,25 +2519,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="L30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -2407,13 +2545,13 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
         <v>75</v>
       </c>
-      <c r="B31" t="s">
-        <v>76</v>
-      </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -2431,31 +2569,31 @@
         <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="L31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -2463,13 +2601,13 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
         <v>77</v>
       </c>
-      <c r="B32" t="s">
-        <v>78</v>
-      </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32">
         <v>8</v>
@@ -2493,25 +2631,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="L32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -2519,13 +2657,13 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
         <v>79</v>
       </c>
-      <c r="B33" t="s">
-        <v>80</v>
-      </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33">
         <v>7</v>
@@ -2549,25 +2687,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="L33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -2575,13 +2713,13 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -2599,31 +2737,31 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="L34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -2631,13 +2769,13 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35">
         <v>9</v>
@@ -2655,31 +2793,31 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="L35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -2687,13 +2825,13 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
         <v>83</v>
       </c>
-      <c r="B36" t="s">
-        <v>84</v>
-      </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -2717,25 +2855,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="L36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -2743,13 +2881,13 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
         <v>85</v>
       </c>
-      <c r="B37" t="s">
-        <v>86</v>
-      </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -2767,31 +2905,31 @@
         <v>5</v>
       </c>
       <c r="I37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="L37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -2799,13 +2937,13 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
         <v>87</v>
       </c>
-      <c r="B38" t="s">
-        <v>88</v>
-      </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -2829,25 +2967,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="L38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -2855,13 +2993,13 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
         <v>89</v>
       </c>
-      <c r="B39" t="s">
-        <v>90</v>
-      </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -2885,25 +3023,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="L39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -2911,13 +3049,13 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -2941,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="L40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -2967,13 +3105,13 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -2997,25 +3135,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="L41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -3023,13 +3161,13 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
         <v>93</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>94</v>
-      </c>
-      <c r="C42" t="s">
-        <v>95</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -3053,25 +3191,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="L42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R42">
         <v>2</v>
@@ -3079,13 +3217,13 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
         <v>96</v>
       </c>
-      <c r="B43" t="s">
-        <v>97</v>
-      </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -3109,25 +3247,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="L43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R43">
         <v>8</v>
@@ -3135,13 +3273,13 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
         <v>98</v>
       </c>
-      <c r="B44" t="s">
-        <v>99</v>
-      </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3165,25 +3303,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="L44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -3191,13 +3329,13 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
         <v>100</v>
       </c>
-      <c r="B45" t="s">
-        <v>101</v>
-      </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3221,25 +3359,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="L45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -3247,13 +3385,13 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
         <v>102</v>
       </c>
-      <c r="B46" t="s">
-        <v>103</v>
-      </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3277,25 +3415,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="L46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -3303,13 +3441,13 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
         <v>104</v>
       </c>
-      <c r="B47" t="s">
-        <v>105</v>
-      </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3333,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="L47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R47">
         <v>3</v>
@@ -3359,13 +3497,13 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
         <v>106</v>
       </c>
-      <c r="B48" t="s">
-        <v>107</v>
-      </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3383,31 +3521,31 @@
         <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="L48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R48">
         <v>2</v>
@@ -3415,13 +3553,13 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
         <v>108</v>
       </c>
-      <c r="B49" t="s">
-        <v>109</v>
-      </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3439,31 +3577,31 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="L49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R49">
         <v>2</v>
@@ -3471,13 +3609,13 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
         <v>110</v>
       </c>
-      <c r="B50" t="s">
-        <v>111</v>
-      </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3495,31 +3633,31 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="L50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -3527,13 +3665,13 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3551,31 +3689,31 @@
         <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="L51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -3583,5 +3721,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/Duelyst/Database/DuelystCards.xlsx
+++ b/src/Duelyst/Database/DuelystCards.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="408">
   <si>
     <t>ManaCost</t>
   </si>
@@ -60,24 +60,15 @@
     <t>Address of Idle Gif</t>
   </si>
   <si>
-    <t>./res/gifs/f1_altgeneral/idle_t.gif</t>
-  </si>
-  <si>
     <t>MINION</t>
   </si>
   <si>
     <t>Address of Run Gif</t>
   </si>
   <si>
-    <t>./res/gifs/f1_altgeneral/run_t.gif</t>
-  </si>
-  <si>
     <t>Address of Attack Gif</t>
   </si>
   <si>
-    <t>./res/gifs/f1_altgeneral/attack_t.gif</t>
-  </si>
-  <si>
     <t>Address of Get Damage Gif</t>
   </si>
   <si>
@@ -90,12 +81,6 @@
     <t xml:space="preserve"> Target Society</t>
   </si>
   <si>
-    <t>./res/gifs/f1_altgeneral/hit_t.gif</t>
-  </si>
-  <si>
-    <t>./res/gifs/f1_altgeneral/death_t.gif</t>
-  </si>
-  <si>
     <t>Kamandare_Fars</t>
   </si>
   <si>
@@ -508,22 +493,764 @@
   </si>
   <si>
     <t>./res/Characters/General/Arash/Arash.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/KamandareFars/Kamandare_Fars_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/KamandareFars/Kamandare_Fars_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/KamandareFars/Kamandare_Fars_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/KamandareFars/Kamandare_Fars_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/KamandareFars/Kamandare_Fars_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/ShamshirZaneFars/ShamshirZane_Fars_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/ShamshirZaneFars/ShamshirZane_Fars_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/ShamshirZaneFars/ShamshirZane_Fars_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/ShamshirZaneFars/ShamshirZane_Fars_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/ShamshirZaneFars/ShamshirZane_Fars_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/NeyzeDareFars/NeyzeDare_Fars_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/NeyzeDareFars/NeyzeDare_Fars_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/NeyzeDareFars/NeyzeDare_Fars_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/NeyzeDareFars/NeyzeDare_Fars_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/NeyzeDareFars/NeyzeDare_Fars_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/AsbSavareFars/AsbSavare_Fars_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/AsbSavareFars/AsbSavare_Fars_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/AsbSavareFars/AsbSavare_Fars_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/AsbSavareFars/AsbSavare_Fars_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/AsbSavareFars/AsbSavare_Fars_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/PahlevaneFars/Pahlevane_Fars_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/PahlevaneFars/Pahlevane_Fars_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/PahlevaneFars/Pahlevane_Fars_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/PahlevaneFars/Pahlevane_Fars_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/PahlevaneFars/Pahlevane_Fars_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/SepahSalareFars/SepahSalare_Fars_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/SepahSalareFars/SepahSalare_Fars_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/SepahSalareFars/SepahSalare_Fars_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/SepahSalareFars/SepahSalare_Fars_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Fars/SepahSalareFars/SepahSalare_Fars_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/KamandareToorani/Kamandare_Toorani_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/KamandareToorani/Kamandare_Toorani_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/KamandareToorani/Kamandare_Toorani_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/KamandareToorani/Kamandare_Toorani_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/KamandareToorani/Kamandare_Toorani_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/GhollabSangAndazeToorani/GhollabSangAndaze_Toorani_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/GhollabSangAndazeToorani/GhollabSangAndaze_Toorani_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/GhollabSangAndazeToorani/GhollabSangAndaze_Toorani_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/GhollabSangAndazeToorani/GhollabSangAndaze_Toorani_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/GhollabSangAndazeToorani/GhollabSangAndaze_Toorani_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/NeyzeDareToorani/NeyzeDare_Toorani_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/NeyzeDareToorani/NeyzeDare_Toorani_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/NeyzeDareToorani/NeyzeDare_Toorani_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/NeyzeDareToorani/NeyzeDare_Toorani_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/NeyzeDareToorani/NeyzeDare_Toorani_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/JasooseToorani/Jasoose_Toorani_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/JasooseToorani/Jasoose_Toorani_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/JasooseToorani/Jasoose_Toorani_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/JasooseToorani/Jasoose_Toorani_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/JasooseToorani/Jasoose_Toorani_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/GorzDareToorani/GorzDare_Toorani_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/GorzDareToorani/GorzDare_Toorani_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/GorzDareToorani/GorzDare_Toorani_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/GorzDareToorani/GorzDare_Toorani_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/GorzDareToorani/GorzDare_Toorani_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/ShahzadeyeToorani/Shahzadeye_Toorani_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/ShahzadeyeToorani/Shahzadeye_Toorani_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/ShahzadeyeToorani/Shahzadeye_Toorani_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/gifs/f1_altgeneral/hit_t.gif./res/Characters/UnitsCreated/Toorani/ShahzadeyeToorani/Shahzadeye_Toorani_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Toorani/ShahzadeyeToorani/Shahzadeye_Toorani_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Div/DiveSiah/DiveSiah_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Div/DiveSiah/DiveSiah_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Div/DiveSiah/DiveSiah_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/gifs/f1_altgeneral/hit_t.gif./res/Characters/UnitsCreated/Div/DiveSiah/DiveSiah_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Div/DiveSiah/DiveSiah_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleSangAndaz/GhooleSangAndaz_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleSangAndaz/GhooleSangAndaz_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleSangAndaz/GhooleSangAndaz_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleSangAndaz/GhooleSangAndaz_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleSangAndaz/GhooleSangAndaz_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Oghab/Oghab_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Oghab/Oghab_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Oghab/Oghab_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Oghab/Oghab_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Oghab/Oghab_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Div/DiveGorazSavar/DiveGorazSavar_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Div/DiveGorazSavar/DiveGorazSavar_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Div/DiveGorazSavar/DiveGorazSavar_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Div/DiveGorazSavar/DiveGorazSavar_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Div/DiveGorazSavar/DiveGorazSavar_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleTakCheshm/GhooleTakCheshm_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleTakCheshm/GhooleTakCheshm_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleTakCheshm/GhooleTakCheshm_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleTakCheshm/GhooleTakCheshm_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleTakCheshm/GhooleTakCheshm_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/MareSammi/MareSammi_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/MareSammi/MareSammi_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/MareSammi/MareSammi_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/MareSammi/MareSammi_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/MareSammi/MareSammi_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/EjdehayeAtashAndaz/EjdehayeAtashAndaz_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/EjdehayeAtashAndaz/EjdehayeAtashAndaz_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/EjdehayeAtashAndaz/EjdehayeAtashAndaz_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/EjdehayeAtashAndaz/EjdehayeAtashAndaz_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/EjdehayeAtashAndaz/EjdehayeAtashAndaz_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/ShireDarande/ShireDarande_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/ShireDarande/ShireDarande_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/ShireDarande/ShireDarande_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/ShireDarande/ShireDarande_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/ShireDarande/ShireDarande_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/MareGhoolPeikar/MareGhoolPeikar_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/MareGhoolPeikar/MareGhoolPeikar_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/MareGhoolPeikar/MareGhoolPeikar_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/MareGhoolPeikar/MareGhoolPeikar_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/MareGhoolPeikar/MareGhoolPeikar_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/GorgeSefid/GorgeSefid_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/GorgeSefid/GorgeSefid_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/GorgeSefid/GorgeSefid_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/GorgeSefid/GorgeSefid_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/GorgeSefid/GorgeSefid_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Palang/Palang_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Palang/Palang_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Palang/Palang_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Palang/Palang_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Palang/Palang_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Gorg/Gorg_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Gorg/Gorg_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Gorg/Gorg_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Gorg/Gorg_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Gorg/Gorg_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Jadoogar/Jadoogar_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Jadoogar/Jadoogar_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Jadoogar/Jadoogar_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Jadoogar/Jadoogar_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Jadoogar/Jadoogar_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/JadoogareAzam/JadoogareAzam_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/JadoogareAzam/JadoogareAzam_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/JadoogareAzam/JadoogareAzam_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/JadoogareAzam/JadoogareAzam_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/JadoogareAzam/JadoogareAzam_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Jen/Jen_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Jen/Jen_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Jen/Jen_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Jen/Jen_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/Jen/Jen_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/GorazeVahshi/GorazeVahshi_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/GorazeVahshi/GorazeVahshi_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/GorazeVahshi/GorazeVahshi_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/GorazeVahshi/GorazeVahshi_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/GorazeVahshi/GorazeVahshi_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Piran/Piran_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Piran/Piran_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Piran/Piran_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Piran/Piran_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Piran/Piran_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Giv/Giv_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Giv/Giv_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Giv/Giv_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Giv/Giv_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Giv/Giv_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Bahman/Bahman_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Bahman/Bahman_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Bahman/Bahman_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Bahman/Bahman_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Bahman/Bahman_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Ashkboos/Ashkboos_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Ashkboos/Ashkboos_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Ashkboos/Ashkboos_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Ashkboos/Ashkboos_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Ashkboos/Ashkboos_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Iraj/Iraj_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Iraj/Iraj_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Iraj/Iraj_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Iraj/Iraj_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Iraj/Iraj_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleBozorg/GhooleBozorg_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleBozorg/GhooleBozorg_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleBozorg/GhooleBozorg_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleBozorg/GhooleBozorg_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleBozorg/GhooleBozorg_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleDoSar/GhooleDoSar_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleDoSar/GhooleDoSar_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleDoSar/GhooleDoSar_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleDoSar/GhooleDoSar_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/GhooleDoSar/GhooleDoSar_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/NaneSarma/NaneSarma_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/NaneSarma/NaneSarma_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/NaneSarma/NaneSarma_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/NaneSarma/NaneSarma_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/NaneSarma/NaneSarma_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/FooladZereh/FooladZereh_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/FooladZereh/FooladZereh_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/FooladZereh/FooladZereh_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/FooladZereh/FooladZereh_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Other/FooladZereh/FooladZereh_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Siavash/Siavash_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Siavash/Siavash_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Siavash/Siavash_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Siavash/Siavash_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Pahlevan/Siavash/Siavash_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/ShahGhool/ShahGhool_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/ShahGhool/ShahGhool_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/ShahGhool/ShahGhool_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/ShahGhool/ShahGhool_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Ghool/ShahGhool/ShahGhool_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Div/ArjangDiv/ArjangDiv_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Div/ArjangDiv/ArjangDiv_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Div/ArjangDiv/ArjangDiv_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Div/ArjangDiv/ArjangDiv_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/UnitsCreated/Div/ArjangDiv/ArjangDiv_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/DiveSefid/DiveSefid_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/DiveSefid/DiveSefid_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/DiveSefid/DiveSefid_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/DiveSefid/DiveSefid_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/DiveSefid/DiveSefid_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Simorgh/Simorgh_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Simorgh/Simorgh_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Simorgh/Simorgh_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Simorgh/Simorgh_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Simorgh/Simorgh_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/EjdehayeHaftSar/EjdehayeHaftSar_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/EjdehayeHaftSar/EjdehayeHaftSar_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/EjdehayeHaftSar/EjdehayeHaftSar_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/EjdehayeHaftSar/EjdehayeHaftSar_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/EjdehayeHaftSar/EjdehayeHaftSar_death.png</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Rakhsh/Rakhsh_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Rakhsh/Rakhsh_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Rakhsh/Rakhsh_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Rakhsh/Rakhsh_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Rakhsh/Rakhsh_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Zahhak/Zahhak_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Zahhak/Zahhak_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Zahhak/Zahhak_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Zahhak/Zahhak_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Zahhak/Zahhak_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Kaveh/Kaveh_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Kaveh/Kaveh_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Kaveh/Kaveh_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Kaveh/Kaveh_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Kaveh/Kaveh_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Arash/Arash_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Arash/Arash_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Arash/Arash_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Arash/Arash_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Arash/Arash_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Afsaneh/Afsaneh_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Afsaneh/Afsaneh_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Afsaneh/Afsaneh_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Afsaneh/Afsaneh_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Afsaneh/Afsaneh_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Esfandiar/Esfandiar_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Esfandiar/Esfandiar_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Esfandiar/Esfandiar_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Esfandiar/Esfandiar_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Esfandiar/Esfandiar_death.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Rostam/Rostam_idle.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Rostam/Rostam_run.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Rostam/Rostam_attack.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Rostam/Rostam_breathing.gif</t>
+  </si>
+  <si>
+    <t>./res/Characters/General/Rostam/Rostam_death.gif</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -553,7 +1280,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,10 +1563,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="93" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="93" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="K48" sqref="K48"/>
+      <selection pane="topRight" activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,33 +1628,33 @@
         <v>12</v>
       </c>
       <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
       <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>22</v>
-      </c>
       <c r="R1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -945,31 +1672,31 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -977,13 +1704,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1007,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" t="s">
-        <v>23</v>
+        <v>165</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1033,13 +1760,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1057,31 +1784,31 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1089,13 +1816,13 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1119,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1145,13 +1872,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -1175,25 +1902,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1201,13 +1928,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1231,25 +1958,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="N7" t="s">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1257,13 +1984,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1281,31 +2008,31 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="N8" t="s">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="Q8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1313,13 +2040,13 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1337,31 +2064,31 @@
         <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="P9" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="Q9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1369,13 +2096,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1393,31 +2120,31 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="N10" t="s">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="Q10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1425,13 +2152,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -1455,25 +2182,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="N11" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="Q11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1481,13 +2208,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1511,25 +2238,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="N12" t="s">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>211</v>
       </c>
       <c r="P12" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="Q12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1537,13 +2264,13 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -1567,25 +2294,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="N13" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="P13" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="Q13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1593,13 +2320,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -1623,25 +2350,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L14" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="M14" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="N14" t="s">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="Q14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1649,13 +2376,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -1673,31 +2400,31 @@
         <v>7</v>
       </c>
       <c r="I15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L15" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="M15" t="s">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="N15" t="s">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c r="P15" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="Q15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1705,13 +2432,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1729,31 +2456,31 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L16" t="s">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="N16" t="s">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="P16" t="s">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="Q16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -1761,13 +2488,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -1791,25 +2518,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L17" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="M17" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="N17" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="P17" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="Q17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -1817,13 +2544,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -1841,31 +2568,31 @@
         <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L18" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="M18" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="N18" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>241</v>
       </c>
       <c r="P18" t="s">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="Q18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -1873,13 +2600,13 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -1897,31 +2624,31 @@
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L19" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="M19" t="s">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="N19" t="s">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>246</v>
       </c>
       <c r="P19" t="s">
-        <v>24</v>
+        <v>247</v>
       </c>
       <c r="Q19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -1929,13 +2656,13 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -1953,31 +2680,31 @@
         <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L20" t="s">
-        <v>13</v>
+        <v>248</v>
       </c>
       <c r="M20" t="s">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="N20" t="s">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="P20" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="Q20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -1985,13 +2712,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2015,25 +2742,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L21" t="s">
-        <v>13</v>
+        <v>253</v>
       </c>
       <c r="M21" t="s">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="N21" t="s">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="P21" t="s">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="Q21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2041,13 +2768,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>8</v>
@@ -2065,31 +2792,31 @@
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L22" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c r="M22" t="s">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="N22" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="P22" t="s">
-        <v>24</v>
+        <v>262</v>
       </c>
       <c r="Q22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2097,13 +2824,13 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -2127,25 +2854,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L23" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="M23" t="s">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="N23" t="s">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
+        <v>266</v>
       </c>
       <c r="P23" t="s">
-        <v>24</v>
+        <v>267</v>
       </c>
       <c r="Q23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -2153,13 +2880,13 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -2183,25 +2910,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s">
-        <v>13</v>
+        <v>268</v>
       </c>
       <c r="M24" t="s">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="N24" t="s">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="O24" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="P24" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="Q24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -2209,13 +2936,13 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -2239,25 +2966,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s">
-        <v>13</v>
+        <v>273</v>
       </c>
       <c r="M25" t="s">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="N25" t="s">
-        <v>18</v>
+        <v>275</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
+        <v>276</v>
       </c>
       <c r="P25" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="Q25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -2265,13 +2992,13 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -2289,31 +3016,31 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s">
-        <v>13</v>
+        <v>278</v>
       </c>
       <c r="M26" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="N26" t="s">
-        <v>18</v>
+        <v>280</v>
       </c>
       <c r="O26" t="s">
-        <v>23</v>
+        <v>281</v>
       </c>
       <c r="P26" t="s">
-        <v>24</v>
+        <v>282</v>
       </c>
       <c r="Q26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -2321,13 +3048,13 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -2345,31 +3072,31 @@
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L27" t="s">
-        <v>13</v>
+        <v>283</v>
       </c>
       <c r="M27" t="s">
-        <v>16</v>
+        <v>284</v>
       </c>
       <c r="N27" t="s">
-        <v>18</v>
+        <v>285</v>
       </c>
       <c r="O27" t="s">
-        <v>23</v>
+        <v>286</v>
       </c>
       <c r="P27" t="s">
-        <v>24</v>
+        <v>287</v>
       </c>
       <c r="Q27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -2377,13 +3104,13 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -2401,31 +3128,31 @@
         <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L28" t="s">
-        <v>13</v>
+        <v>288</v>
       </c>
       <c r="M28" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="N28" t="s">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="O28" t="s">
-        <v>23</v>
+        <v>291</v>
       </c>
       <c r="P28" t="s">
-        <v>24</v>
+        <v>292</v>
       </c>
       <c r="Q28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -2433,13 +3160,13 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29">
         <v>6</v>
@@ -2463,25 +3190,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="M29" t="s">
-        <v>16</v>
+        <v>294</v>
       </c>
       <c r="N29" t="s">
-        <v>18</v>
+        <v>295</v>
       </c>
       <c r="O29" t="s">
-        <v>23</v>
+        <v>296</v>
       </c>
       <c r="P29" t="s">
-        <v>24</v>
+        <v>297</v>
       </c>
       <c r="Q29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -2489,13 +3216,13 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -2519,25 +3246,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L30" t="s">
-        <v>13</v>
+        <v>298</v>
       </c>
       <c r="M30" t="s">
-        <v>16</v>
+        <v>299</v>
       </c>
       <c r="N30" t="s">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="O30" t="s">
-        <v>23</v>
+        <v>301</v>
       </c>
       <c r="P30" t="s">
-        <v>24</v>
+        <v>302</v>
       </c>
       <c r="Q30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -2545,13 +3272,13 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -2569,31 +3296,31 @@
         <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L31" t="s">
-        <v>13</v>
+        <v>303</v>
       </c>
       <c r="M31" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="N31" t="s">
-        <v>18</v>
+        <v>305</v>
       </c>
       <c r="O31" t="s">
-        <v>23</v>
+        <v>306</v>
       </c>
       <c r="P31" t="s">
-        <v>24</v>
+        <v>307</v>
       </c>
       <c r="Q31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -2601,13 +3328,13 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32">
         <v>8</v>
@@ -2631,25 +3358,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L32" t="s">
-        <v>13</v>
+        <v>308</v>
       </c>
       <c r="M32" t="s">
-        <v>16</v>
+        <v>309</v>
       </c>
       <c r="N32" t="s">
-        <v>18</v>
+        <v>310</v>
       </c>
       <c r="O32" t="s">
-        <v>23</v>
+        <v>311</v>
       </c>
       <c r="P32" t="s">
-        <v>24</v>
+        <v>312</v>
       </c>
       <c r="Q32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -2657,13 +3384,13 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33">
         <v>7</v>
@@ -2687,25 +3414,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L33" t="s">
-        <v>13</v>
+        <v>313</v>
       </c>
       <c r="M33" t="s">
-        <v>16</v>
+        <v>314</v>
       </c>
       <c r="N33" t="s">
-        <v>18</v>
+        <v>315</v>
       </c>
       <c r="O33" t="s">
-        <v>23</v>
+        <v>316</v>
       </c>
       <c r="P33" t="s">
-        <v>24</v>
+        <v>317</v>
       </c>
       <c r="Q33" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -2713,13 +3440,13 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -2737,31 +3464,31 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L34" t="s">
-        <v>13</v>
+        <v>318</v>
       </c>
       <c r="M34" t="s">
-        <v>16</v>
+        <v>319</v>
       </c>
       <c r="N34" t="s">
-        <v>18</v>
+        <v>320</v>
       </c>
       <c r="O34" t="s">
-        <v>23</v>
+        <v>321</v>
       </c>
       <c r="P34" t="s">
-        <v>24</v>
+        <v>322</v>
       </c>
       <c r="Q34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -2769,13 +3496,13 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35">
         <v>9</v>
@@ -2793,31 +3520,31 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L35" t="s">
-        <v>13</v>
+        <v>323</v>
       </c>
       <c r="M35" t="s">
-        <v>16</v>
+        <v>324</v>
       </c>
       <c r="N35" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="O35" t="s">
-        <v>23</v>
+        <v>326</v>
       </c>
       <c r="P35" t="s">
-        <v>24</v>
+        <v>327</v>
       </c>
       <c r="Q35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -2825,13 +3552,13 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -2855,25 +3582,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L36" t="s">
-        <v>13</v>
+        <v>328</v>
       </c>
       <c r="M36" t="s">
-        <v>16</v>
+        <v>329</v>
       </c>
       <c r="N36" t="s">
-        <v>18</v>
+        <v>330</v>
       </c>
       <c r="O36" t="s">
-        <v>23</v>
+        <v>331</v>
       </c>
       <c r="P36" t="s">
-        <v>24</v>
+        <v>332</v>
       </c>
       <c r="Q36" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -2881,13 +3608,13 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -2905,31 +3632,31 @@
         <v>5</v>
       </c>
       <c r="I37" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L37" t="s">
-        <v>13</v>
+        <v>333</v>
       </c>
       <c r="M37" t="s">
-        <v>16</v>
+        <v>334</v>
       </c>
       <c r="N37" t="s">
-        <v>18</v>
+        <v>335</v>
       </c>
       <c r="O37" t="s">
-        <v>23</v>
+        <v>336</v>
       </c>
       <c r="P37" t="s">
-        <v>24</v>
+        <v>337</v>
       </c>
       <c r="Q37" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -2937,13 +3664,13 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -2967,25 +3694,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L38" t="s">
-        <v>13</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s">
-        <v>16</v>
+        <v>339</v>
       </c>
       <c r="N38" t="s">
-        <v>18</v>
+        <v>340</v>
       </c>
       <c r="O38" t="s">
-        <v>23</v>
+        <v>341</v>
       </c>
       <c r="P38" t="s">
-        <v>24</v>
+        <v>342</v>
       </c>
       <c r="Q38" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -2993,13 +3720,13 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -3023,25 +3750,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L39" t="s">
-        <v>13</v>
+        <v>343</v>
       </c>
       <c r="M39" t="s">
-        <v>16</v>
+        <v>344</v>
       </c>
       <c r="N39" t="s">
-        <v>18</v>
+        <v>345</v>
       </c>
       <c r="O39" t="s">
-        <v>23</v>
+        <v>346</v>
       </c>
       <c r="P39" t="s">
-        <v>24</v>
+        <v>347</v>
       </c>
       <c r="Q39" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -3049,13 +3776,13 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -3079,25 +3806,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L40" t="s">
-        <v>13</v>
+        <v>348</v>
       </c>
       <c r="M40" t="s">
-        <v>16</v>
+        <v>349</v>
       </c>
       <c r="N40" t="s">
-        <v>18</v>
+        <v>350</v>
       </c>
       <c r="O40" t="s">
-        <v>23</v>
+        <v>351</v>
       </c>
       <c r="P40" t="s">
-        <v>24</v>
+        <v>352</v>
       </c>
       <c r="Q40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -3105,13 +3832,13 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -3135,25 +3862,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L41" t="s">
-        <v>13</v>
+        <v>353</v>
       </c>
       <c r="M41" t="s">
-        <v>16</v>
+        <v>354</v>
       </c>
       <c r="N41" t="s">
-        <v>18</v>
+        <v>355</v>
       </c>
       <c r="O41" t="s">
-        <v>23</v>
+        <v>356</v>
       </c>
       <c r="P41" t="s">
-        <v>24</v>
+        <v>357</v>
       </c>
       <c r="Q41" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -3161,13 +3888,13 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -3191,25 +3918,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L42" t="s">
-        <v>13</v>
+        <v>358</v>
       </c>
       <c r="M42" t="s">
-        <v>16</v>
+        <v>359</v>
       </c>
       <c r="N42" t="s">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="O42" t="s">
-        <v>23</v>
+        <v>361</v>
       </c>
       <c r="P42" t="s">
-        <v>24</v>
+        <v>362</v>
       </c>
       <c r="Q42" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R42">
         <v>2</v>
@@ -3217,13 +3944,13 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -3247,25 +3974,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s">
-        <v>13</v>
+        <v>363</v>
       </c>
       <c r="M43" t="s">
-        <v>16</v>
+        <v>364</v>
       </c>
       <c r="N43" t="s">
-        <v>18</v>
+        <v>365</v>
       </c>
       <c r="O43" t="s">
-        <v>23</v>
+        <v>366</v>
       </c>
       <c r="P43" t="s">
-        <v>24</v>
+        <v>367</v>
       </c>
       <c r="Q43" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R43">
         <v>8</v>
@@ -3273,13 +4000,13 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3303,25 +4030,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L44" t="s">
-        <v>13</v>
+        <v>368</v>
       </c>
       <c r="M44" t="s">
-        <v>16</v>
+        <v>369</v>
       </c>
       <c r="N44" t="s">
-        <v>18</v>
+        <v>370</v>
       </c>
       <c r="O44" t="s">
-        <v>23</v>
+        <v>371</v>
       </c>
       <c r="P44" t="s">
-        <v>24</v>
+        <v>372</v>
       </c>
       <c r="Q44" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R44">
         <v>1</v>
@@ -3329,13 +4056,13 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3359,25 +4086,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L45" t="s">
-        <v>13</v>
+        <v>373</v>
       </c>
       <c r="M45" t="s">
-        <v>16</v>
+        <v>374</v>
       </c>
       <c r="N45" t="s">
-        <v>18</v>
+        <v>375</v>
       </c>
       <c r="O45" t="s">
-        <v>23</v>
+        <v>376</v>
       </c>
       <c r="P45" t="s">
-        <v>24</v>
+        <v>377</v>
       </c>
       <c r="Q45" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -3385,13 +4112,13 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3415,25 +4142,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L46" t="s">
-        <v>13</v>
+        <v>378</v>
       </c>
       <c r="M46" t="s">
-        <v>16</v>
+        <v>379</v>
       </c>
       <c r="N46" t="s">
-        <v>18</v>
+        <v>380</v>
       </c>
       <c r="O46" t="s">
-        <v>23</v>
+        <v>381</v>
       </c>
       <c r="P46" t="s">
-        <v>24</v>
+        <v>382</v>
       </c>
       <c r="Q46" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -3441,13 +4168,13 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3471,25 +4198,25 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L47" t="s">
-        <v>13</v>
+        <v>383</v>
       </c>
       <c r="M47" t="s">
-        <v>16</v>
+        <v>384</v>
       </c>
       <c r="N47" t="s">
-        <v>18</v>
+        <v>385</v>
       </c>
       <c r="O47" t="s">
-        <v>23</v>
+        <v>386</v>
       </c>
       <c r="P47" t="s">
-        <v>24</v>
+        <v>387</v>
       </c>
       <c r="Q47" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R47">
         <v>3</v>
@@ -3497,13 +4224,13 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -3521,31 +4248,31 @@
         <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L48" t="s">
-        <v>13</v>
+        <v>388</v>
       </c>
       <c r="M48" t="s">
-        <v>16</v>
+        <v>389</v>
       </c>
       <c r="N48" t="s">
-        <v>18</v>
+        <v>390</v>
       </c>
       <c r="O48" t="s">
-        <v>23</v>
+        <v>391</v>
       </c>
       <c r="P48" t="s">
-        <v>24</v>
+        <v>392</v>
       </c>
       <c r="Q48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R48">
         <v>2</v>
@@ -3553,13 +4280,13 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -3577,31 +4304,31 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L49" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="M49" t="s">
-        <v>16</v>
+        <v>394</v>
       </c>
       <c r="N49" t="s">
-        <v>18</v>
+        <v>395</v>
       </c>
       <c r="O49" t="s">
-        <v>23</v>
+        <v>396</v>
       </c>
       <c r="P49" t="s">
-        <v>24</v>
+        <v>397</v>
       </c>
       <c r="Q49" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R49">
         <v>2</v>
@@ -3609,13 +4336,13 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3633,31 +4360,31 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L50" t="s">
-        <v>13</v>
+        <v>398</v>
       </c>
       <c r="M50" t="s">
-        <v>16</v>
+        <v>399</v>
       </c>
       <c r="N50" t="s">
-        <v>18</v>
+        <v>400</v>
       </c>
       <c r="O50" t="s">
-        <v>23</v>
+        <v>401</v>
       </c>
       <c r="P50" t="s">
-        <v>24</v>
+        <v>402</v>
       </c>
       <c r="Q50" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -3665,13 +4392,13 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3689,31 +4416,31 @@
         <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L51" t="s">
-        <v>13</v>
+        <v>403</v>
       </c>
       <c r="M51" t="s">
-        <v>16</v>
+        <v>404</v>
       </c>
       <c r="N51" t="s">
-        <v>18</v>
+        <v>405</v>
       </c>
       <c r="O51" t="s">
-        <v>23</v>
+        <v>406</v>
       </c>
       <c r="P51" t="s">
-        <v>24</v>
+        <v>407</v>
       </c>
       <c r="Q51" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R51">
         <v>0</v>

--- a/src/Duelyst/Database/DuelystCards.xlsx
+++ b/src/Duelyst/Database/DuelystCards.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Duelyst_java8\src\Duelyst\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\_Downloads\Comperessed\Duelyst_java8\src\Duelyst\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14772" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14775" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -1248,7 +1248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1563,34 +1563,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="93" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="P43" sqref="P43"/>
+      <selection pane="topRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="90.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="90.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="49.44140625" customWidth="1"/>
-    <col min="12" max="12" width="34.44140625" customWidth="1"/>
-    <col min="13" max="13" width="39.6640625" customWidth="1"/>
-    <col min="14" max="14" width="36.109375" customWidth="1"/>
-    <col min="15" max="15" width="38.44140625" customWidth="1"/>
-    <col min="16" max="16" width="41.88671875" customWidth="1"/>
-    <col min="17" max="17" width="33.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="76.140625" customWidth="1"/>
+    <col min="12" max="12" width="65.140625" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" customWidth="1"/>
+    <col min="14" max="14" width="36.140625" customWidth="1"/>
+    <col min="15" max="15" width="87.42578125" customWidth="1"/>
+    <col min="16" max="16" width="41.85546875" customWidth="1"/>
+    <col min="17" max="17" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>106</v>
       </c>
